--- a/org.imt.tdl.sbfl.evaluation/evaluationData/MiniJava.Overall.xlsx
+++ b/org.imt.tdl.sbfl.evaluation/evaluationData/MiniJava.Overall.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\labtop\GitHub\xtdl_FaultLocalization\org.imt.tdl.sbfl.evaluation\evaluationData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4439543-E0AF-4674-9A6C-658C777A2916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16554BBF-6DEE-40BD-97FA-782D2F7ECD3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Factorial" sheetId="1" r:id="rId1"/>
@@ -19,18 +19,28 @@
     <sheet name="LinkedList" sheetId="4" r:id="rId4"/>
     <sheet name="BinarySearch" sheetId="5" r:id="rId5"/>
     <sheet name="Tree" sheetId="6" r:id="rId6"/>
+    <sheet name="Average" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="36">
   <si>
     <t>SBFL Technique</t>
   </si>
@@ -118,11 +128,35 @@
   <si>
     <t>barinel</t>
   </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Factorial</t>
+  </si>
+  <si>
+    <t>LinearSearch</t>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t>LinkedList</t>
+  </si>
+  <si>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t>BinarySearch</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -132,15 +166,57 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -148,12 +224,160 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,7 +661,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J20"/>
+      <selection activeCell="F2" sqref="F2:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -490,7 +714,7 @@
       <c r="E2">
         <v>0.41699999999999998</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>0.36899999999999999</v>
       </c>
       <c r="G2">
@@ -522,7 +746,7 @@
       <c r="E3">
         <v>0.5</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>0.38100000000000001</v>
       </c>
       <c r="G3">
@@ -554,7 +778,7 @@
       <c r="E4">
         <v>0.5</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="4">
         <v>0.48799999999999999</v>
       </c>
       <c r="G4">
@@ -586,7 +810,7 @@
       <c r="E5">
         <v>0.41699999999999998</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>0.36899999999999999</v>
       </c>
       <c r="G5">
@@ -618,7 +842,7 @@
       <c r="E6">
         <v>0.5</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>0.38100000000000001</v>
       </c>
       <c r="G6">
@@ -650,7 +874,7 @@
       <c r="E7">
         <v>0.41699999999999998</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>0.36899999999999999</v>
       </c>
       <c r="G7">
@@ -682,7 +906,7 @@
       <c r="E8">
         <v>0.41699999999999998</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>0.36899999999999999</v>
       </c>
       <c r="G8">
@@ -714,7 +938,7 @@
       <c r="E9">
         <v>0.41699999999999998</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>0.36899999999999999</v>
       </c>
       <c r="G9">
@@ -746,7 +970,7 @@
       <c r="E10">
         <v>0.41699999999999998</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>0.36899999999999999</v>
       </c>
       <c r="G10">
@@ -778,7 +1002,7 @@
       <c r="E11">
         <v>0.5</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>0.38100000000000001</v>
       </c>
       <c r="G11">
@@ -810,7 +1034,7 @@
       <c r="E12">
         <v>0.41699999999999998</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>0.36899999999999999</v>
       </c>
       <c r="G12">
@@ -842,7 +1066,7 @@
       <c r="E13">
         <v>0.5</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="3">
         <v>0.42899999999999999</v>
       </c>
       <c r="G13">
@@ -906,7 +1130,7 @@
       <c r="E15">
         <v>0.41699999999999998</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>0.36899999999999999</v>
       </c>
       <c r="G15">
@@ -938,7 +1162,7 @@
       <c r="E16">
         <v>0.5</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="4">
         <v>0.48799999999999999</v>
       </c>
       <c r="G16">
@@ -970,7 +1194,7 @@
       <c r="E17">
         <v>0.5</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="3">
         <v>0.42899999999999999</v>
       </c>
       <c r="G17">
@@ -1002,7 +1226,7 @@
       <c r="E18">
         <v>0.5</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="2">
         <v>0.38100000000000001</v>
       </c>
       <c r="G18">
@@ -1066,7 +1290,7 @@
       <c r="E20">
         <v>0.5</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="2">
         <v>0.38100000000000001</v>
       </c>
       <c r="G20">
@@ -1092,7 +1316,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="F2" sqref="F2:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1145,7 +1369,7 @@
       <c r="E2">
         <v>0.39400000000000002</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>0.34699999999999998</v>
       </c>
       <c r="G2">
@@ -1241,7 +1465,7 @@
       <c r="E5">
         <v>0.39400000000000002</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>0.33900000000000002</v>
       </c>
       <c r="G5">
@@ -1305,7 +1529,7 @@
       <c r="E7">
         <v>0.439</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="4">
         <v>0.36799999999999999</v>
       </c>
       <c r="G7">
@@ -1337,7 +1561,7 @@
       <c r="E8">
         <v>0.439</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="4">
         <v>0.36799999999999999</v>
       </c>
       <c r="G8">
@@ -1369,7 +1593,7 @@
       <c r="E9">
         <v>0.39400000000000002</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>0.33900000000000002</v>
       </c>
       <c r="G9">
@@ -1401,7 +1625,7 @@
       <c r="E10">
         <v>0.34799999999999998</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>0.33100000000000002</v>
       </c>
       <c r="G10">
@@ -1465,7 +1689,7 @@
       <c r="E12">
         <v>0.39400000000000002</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <v>0.33900000000000002</v>
       </c>
       <c r="G12">
@@ -1561,7 +1785,7 @@
       <c r="E15">
         <v>0.39400000000000002</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <v>0.33900000000000002</v>
       </c>
       <c r="G15">
@@ -1747,7 +1971,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J20"/>
+      <selection activeCell="F2" sqref="F2:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1832,7 +2056,7 @@
       <c r="E3">
         <v>0.1</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="4">
         <v>0.114</v>
       </c>
       <c r="G3">
@@ -1896,7 +2120,7 @@
       <c r="E5">
         <v>0.1</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>0.107</v>
       </c>
       <c r="G5">
@@ -2024,7 +2248,7 @@
       <c r="E9">
         <v>0.1</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>0.11</v>
       </c>
       <c r="G9">
@@ -2056,7 +2280,7 @@
       <c r="E10">
         <v>0.1</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="G10">
@@ -2088,7 +2312,7 @@
       <c r="E11">
         <v>0.1</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="3">
         <v>0.11</v>
       </c>
       <c r="G11">
@@ -2120,7 +2344,7 @@
       <c r="E12">
         <v>0.1</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <v>0.107</v>
       </c>
       <c r="G12">
@@ -2312,7 +2536,7 @@
       <c r="E18">
         <v>0.1</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="3">
         <v>0.11</v>
       </c>
       <c r="G18">
@@ -2402,7 +2626,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J20"/>
+      <selection activeCell="F2" sqref="F2:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2487,7 +2711,7 @@
       <c r="E3">
         <v>0.09</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>0.11899999999999999</v>
       </c>
       <c r="G3">
@@ -2551,7 +2775,7 @@
       <c r="E5">
         <v>0.09</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>0.109</v>
       </c>
       <c r="G5">
@@ -2615,7 +2839,7 @@
       <c r="E7">
         <v>0.09</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="4">
         <v>0.123</v>
       </c>
       <c r="G7">
@@ -2647,7 +2871,7 @@
       <c r="E8">
         <v>0.09</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="4">
         <v>0.123</v>
       </c>
       <c r="G8">
@@ -2679,7 +2903,7 @@
       <c r="E9">
         <v>0.09</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>0.11899999999999999</v>
       </c>
       <c r="G9">
@@ -2711,7 +2935,7 @@
       <c r="E10">
         <v>0.09</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>9.1999999999999998E-2</v>
       </c>
       <c r="G10">
@@ -2743,7 +2967,7 @@
       <c r="E11">
         <v>0.09</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="3">
         <v>0.11899999999999999</v>
       </c>
       <c r="G11">
@@ -2775,7 +2999,7 @@
       <c r="E12">
         <v>0.09</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <v>0.109</v>
       </c>
       <c r="G12">
@@ -3057,7 +3281,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J20"/>
+      <selection activeCell="F2" sqref="F2:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3110,7 +3334,7 @@
       <c r="E2">
         <v>0.38900000000000001</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>0.36299999999999999</v>
       </c>
       <c r="G2">
@@ -3142,7 +3366,7 @@
       <c r="E3">
         <v>0.5</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>0.5</v>
       </c>
       <c r="G3">
@@ -3174,7 +3398,7 @@
       <c r="E4">
         <v>0.38900000000000001</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>0.36299999999999999</v>
       </c>
       <c r="G4">
@@ -3206,7 +3430,7 @@
       <c r="E5">
         <v>0.38900000000000001</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>0.36299999999999999</v>
       </c>
       <c r="G5">
@@ -3238,7 +3462,7 @@
       <c r="E6">
         <v>0.38900000000000001</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>0.36299999999999999</v>
       </c>
       <c r="G6">
@@ -3270,7 +3494,7 @@
       <c r="E7">
         <v>0.38900000000000001</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>0.36299999999999999</v>
       </c>
       <c r="G7">
@@ -3302,7 +3526,7 @@
       <c r="E8">
         <v>0.38900000000000001</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>0.36299999999999999</v>
       </c>
       <c r="G8">
@@ -3334,7 +3558,7 @@
       <c r="E9">
         <v>0.38900000000000001</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>0.36299999999999999</v>
       </c>
       <c r="G9">
@@ -3366,7 +3590,7 @@
       <c r="E10">
         <v>0.38900000000000001</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>0.36299999999999999</v>
       </c>
       <c r="G10">
@@ -3398,7 +3622,7 @@
       <c r="E11">
         <v>0.5</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>0.5</v>
       </c>
       <c r="G11">
@@ -3430,7 +3654,7 @@
       <c r="E12">
         <v>0.38900000000000001</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>0.36299999999999999</v>
       </c>
       <c r="G12">
@@ -3462,7 +3686,7 @@
       <c r="E13">
         <v>0.38900000000000001</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>0.36299999999999999</v>
       </c>
       <c r="G13">
@@ -3494,7 +3718,7 @@
       <c r="E14">
         <v>0.38900000000000001</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>0.36299999999999999</v>
       </c>
       <c r="G14">
@@ -3526,7 +3750,7 @@
       <c r="E15">
         <v>0.38900000000000001</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>0.36299999999999999</v>
       </c>
       <c r="G15">
@@ -3558,7 +3782,7 @@
       <c r="E16">
         <v>0.38900000000000001</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <v>0.36299999999999999</v>
       </c>
       <c r="G16">
@@ -3590,7 +3814,7 @@
       <c r="E17">
         <v>0.5</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="2">
         <v>0.5</v>
       </c>
       <c r="G17">
@@ -3622,7 +3846,7 @@
       <c r="E18">
         <v>0.5</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="2">
         <v>0.5</v>
       </c>
       <c r="G18">
@@ -3654,7 +3878,7 @@
       <c r="E19">
         <v>0.5</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="2">
         <v>0.5</v>
       </c>
       <c r="G19">
@@ -3686,7 +3910,7 @@
       <c r="E20">
         <v>0.5</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="2">
         <v>0.5</v>
       </c>
       <c r="G20">
@@ -3711,8 +3935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D55B75-7E11-4C55-AD42-8E568F2CBE72}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3765,7 +3989,7 @@
       <c r="E2">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="4">
         <v>8.1000000000000003E-2</v>
       </c>
       <c r="G2">
@@ -3797,7 +4021,7 @@
       <c r="E3">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>0.06</v>
       </c>
       <c r="G3">
@@ -3861,7 +4085,7 @@
       <c r="E5">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="4">
         <v>8.1000000000000003E-2</v>
       </c>
       <c r="G5">
@@ -3925,7 +4149,7 @@
       <c r="E7">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="G7">
@@ -3957,7 +4181,7 @@
       <c r="E8">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="G8">
@@ -3989,7 +4213,7 @@
       <c r="E9">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="4">
         <v>8.1000000000000003E-2</v>
       </c>
       <c r="G9">
@@ -4021,7 +4245,7 @@
       <c r="E10">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="G10">
@@ -4053,7 +4277,7 @@
       <c r="E11">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>0.06</v>
       </c>
       <c r="G11">
@@ -4085,7 +4309,7 @@
       <c r="E12">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="4">
         <v>8.1000000000000003E-2</v>
       </c>
       <c r="G12">
@@ -4181,7 +4405,7 @@
       <c r="E15">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="4">
         <v>8.1000000000000003E-2</v>
       </c>
       <c r="G15">
@@ -4277,7 +4501,7 @@
       <c r="E18">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="4">
         <v>8.1000000000000003E-2</v>
       </c>
       <c r="G18">
@@ -4360,4 +4584,582 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BA83037-E364-4B85-9371-CBE2B98B89EC}">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.6328125" customWidth="1"/>
+    <col min="2" max="2" width="9.90625" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" customWidth="1"/>
+    <col min="6" max="6" width="11.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="5"/>
+      <c r="B1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="13">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="C3" s="14">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="D3" s="15">
+        <v>0.122</v>
+      </c>
+      <c r="E3" s="15">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="F3" s="13">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="G3" s="16">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="H3" s="17">
+        <f>AVERAGE(B3:G3)</f>
+        <v>0.23549999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="18">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="D4" s="16">
+        <v>0.114</v>
+      </c>
+      <c r="E4" s="14">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="F4" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="13">
+        <v>0.06</v>
+      </c>
+      <c r="H4" s="19">
+        <f t="shared" ref="H4:H21" si="0">AVERAGE(B4:G4)</f>
+        <v>0.26150000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="16">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0.16</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0.186</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="G5" s="15">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="H5" s="19">
+        <f t="shared" si="0"/>
+        <v>0.28649999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="13">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="C6" s="18">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="D6" s="18">
+        <v>0.107</v>
+      </c>
+      <c r="E6" s="18">
+        <v>0.109</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="G6" s="16">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="H6" s="25">
+        <f t="shared" si="0"/>
+        <v>0.22799999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="18">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0.159</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0.253</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="G7" s="15">
+        <v>0.13</v>
+      </c>
+      <c r="H7" s="19">
+        <f t="shared" si="0"/>
+        <v>0.27683333333333332</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="13">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="C8" s="16">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="D8" s="15">
+        <v>0.36</v>
+      </c>
+      <c r="E8" s="16">
+        <v>0.123</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="G8" s="18">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="H8" s="19">
+        <f t="shared" si="0"/>
+        <v>0.27399999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="13">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="C9" s="16">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0.36</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0.123</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="G9" s="18">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="H9" s="19">
+        <f t="shared" si="0"/>
+        <v>0.27399999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="13">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="C10" s="18">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="D10" s="14">
+        <v>0.11</v>
+      </c>
+      <c r="E10" s="14">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="G10" s="16">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="H10" s="26">
+        <f t="shared" si="0"/>
+        <v>0.23016666666666663</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="13">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="C11" s="13">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="D11" s="13">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="E11" s="13">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="G11" s="14">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="H11" s="24">
+        <f t="shared" si="0"/>
+        <v>0.22066666666666668</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="18">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="C12" s="15">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="D12" s="14">
+        <v>0.11</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="F12" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="G12" s="13">
+        <v>0.06</v>
+      </c>
+      <c r="H12" s="19">
+        <f t="shared" si="0"/>
+        <v>0.26083333333333331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="13">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="C13" s="18">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="D13" s="18">
+        <v>0.107</v>
+      </c>
+      <c r="E13" s="18">
+        <v>0.109</v>
+      </c>
+      <c r="F13" s="13">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="G13" s="16">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="H13" s="25">
+        <f t="shared" si="0"/>
+        <v>0.22799999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="14">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="C14" s="15">
+        <v>0.41</v>
+      </c>
+      <c r="D14" s="15">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="E14" s="15">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="G14" s="15">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="H14" s="19">
+        <f t="shared" si="0"/>
+        <v>0.28799999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="15">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="C15" s="15">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="D15" s="15">
+        <v>0.26</v>
+      </c>
+      <c r="E15" s="15">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="G15" s="15">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="H15" s="19">
+        <f t="shared" si="0"/>
+        <v>0.36316666666666669</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="13">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="C16" s="18">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="D16" s="15">
+        <v>0.12</v>
+      </c>
+      <c r="E16" s="15">
+        <v>0.126</v>
+      </c>
+      <c r="F16" s="13">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="G16" s="16">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="H16" s="27">
+        <f t="shared" si="0"/>
+        <v>0.23299999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="16">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="C17" s="15">
+        <v>0.38</v>
+      </c>
+      <c r="D17" s="15">
+        <v>0.158</v>
+      </c>
+      <c r="E17" s="15">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="F17" s="13">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="G17" s="15">
+        <v>0.107</v>
+      </c>
+      <c r="H17" s="19">
+        <f t="shared" si="0"/>
+        <v>0.27883333333333332</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="14">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="C18" s="15">
+        <v>0.39</v>
+      </c>
+      <c r="D18" s="15">
+        <v>0.313</v>
+      </c>
+      <c r="E18" s="15">
+        <v>0.159</v>
+      </c>
+      <c r="F18" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="G18" s="15">
+        <v>0.249</v>
+      </c>
+      <c r="H18" s="19">
+        <f t="shared" si="0"/>
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="18">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="C19" s="15">
+        <v>0.432</v>
+      </c>
+      <c r="D19" s="14">
+        <v>0.11</v>
+      </c>
+      <c r="E19" s="15">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="F19" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="G19" s="16">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="H19" s="19">
+        <f t="shared" si="0"/>
+        <v>0.27283333333333332</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="15">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="C20" s="15">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="D20" s="15">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="E20" s="15">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="F20" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="G20" s="15">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="H20" s="19">
+        <f t="shared" si="0"/>
+        <v>0.6346666666666666</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="21">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="C21" s="22">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="D21" s="22">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="E21" s="22">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="F21" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="G21" s="22">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="H21" s="20">
+        <f t="shared" si="0"/>
+        <v>0.39116666666666666</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>